--- a/mini_project_2/rtl/deliverables/report.xlsx
+++ b/mini_project_2/rtl/deliverables/report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Programming_3rd_year\Semster_1\VLSI\vlsi-projects\mini_project_2\rtl\deliverables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2D41E6A-3141-4574-A9F3-2488D7D7EADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A596BFAC-571B-4184-B82A-9D1C6759BDD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>Multiplier
 Tree</t>
@@ -59,9 +59,6 @@
     <t>Verilog (*)</t>
   </si>
   <si>
-    <t>Utilization after routing (not after export)</t>
-  </si>
-  <si>
     <t>Clock (ps)</t>
   </si>
   <si>
@@ -69,29 +66,6 @@
   </si>
   <si>
     <t>Sequential Multiplier</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>207</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-((32 + 32 + 64) + 7(counter) + 3(state) + 65(temp_add) + 4(internal signals))</t>
-    </r>
   </si>
   <si>
     <r>
@@ -125,8 +99,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">96
-</t>
+      <t>207</t>
     </r>
     <r>
       <rPr>
@@ -136,15 +109,61 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>(32 + 32 +32)</t>
+      <t xml:space="preserve">
+((32 + 32 + 64) + 6(counter) + 3(state) + 65(temp_add) + 5(internal signals))</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>256</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+(128(input and output) + 128(internal registers))</t>
+    </r>
+  </si>
+  <si>
+    <t>Utilization after routing (not after export)
+Placer/Silicon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.1922/59.2 </t>
+  </si>
+  <si>
+    <t>64.198/58.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65.0845/59.3  </t>
+  </si>
+  <si>
+    <t>62.4647/59.4</t>
+  </si>
+  <si>
+    <t>62.5128/59.4</t>
+  </si>
+  <si>
+    <t>65.4778/59.3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,6 +186,13 @@
     <font>
       <sz val="16"/>
       <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -522,18 +548,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="23.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="22.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="78" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="55.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="94" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="61.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="40.799999999999997">
@@ -545,7 +572,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>1</v>
@@ -569,12 +596,16 @@
         <v>70.2</v>
       </c>
       <c r="D2" s="4">
-        <v>51.6</v>
-      </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
+        <v>22.5</v>
+      </c>
+      <c r="E2" s="4">
+        <v>26.4</v>
+      </c>
+      <c r="F2" s="4">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="G2" s="4">
-        <v>374.5</v>
+        <v>16</v>
       </c>
       <c r="H2" s="1"/>
     </row>
@@ -591,16 +622,20 @@
       <c r="D3" s="4">
         <v>2474.3000000000002</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
+      <c r="E3" s="4">
+        <v>2358.4</v>
+      </c>
+      <c r="F3" s="4">
+        <v>4812.6000000000004</v>
+      </c>
       <c r="G3" s="4">
-        <v>3914.3</v>
+        <v>2061.1999999999998</v>
       </c>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" ht="21">
       <c r="A4" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="4">
         <v>5000</v>
@@ -611,8 +646,12 @@
       <c r="D4" s="4">
         <v>5000</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
+      <c r="E4" s="4">
+        <v>5000</v>
+      </c>
+      <c r="F4" s="4">
+        <v>5000</v>
+      </c>
       <c r="G4" s="4">
         <v>5000</v>
       </c>
@@ -620,7 +659,7 @@
     </row>
     <row r="5" spans="1:8" ht="40.799999999999997">
       <c r="A5" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="4">
         <v>2059.2009280000002</v>
@@ -631,10 +670,14 @@
       <c r="D5" s="4">
         <v>549.01782200000002</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
+      <c r="E5" s="4">
+        <v>610.26544200000001</v>
+      </c>
+      <c r="F5" s="4">
+        <v>1138.9735109999999</v>
+      </c>
       <c r="G5" s="4">
-        <v>1953.148193</v>
+        <v>941.24206500000003</v>
       </c>
       <c r="H5" s="1"/>
     </row>
@@ -651,50 +694,62 @@
       <c r="D6" s="4">
         <v>2035</v>
       </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
+      <c r="E6" s="4">
+        <v>1991</v>
+      </c>
+      <c r="F6" s="4">
+        <v>5481</v>
+      </c>
       <c r="G6" s="4">
-        <v>3942</v>
+        <v>1939</v>
       </c>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" ht="61.2">
+    <row r="7" spans="1:8" ht="81.599999999999994">
       <c r="A7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="4">
-        <v>62.512799999999999</v>
-      </c>
-      <c r="C7" s="4">
-        <v>62.464700000000001</v>
-      </c>
-      <c r="D7" s="4">
-        <v>52.477699999999999</v>
-      </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4">
-        <v>64.109700000000004</v>
+        <v>15</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" ht="63">
+    <row r="8" spans="1:8" ht="61.2">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="5" t="s">
-        <v>15</v>
+      <c r="E8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="4">
+        <v>730</v>
+      </c>
+      <c r="G8" s="5">
+        <v>178</v>
       </c>
       <c r="H8" s="1"/>
     </row>
